--- a/design/Book1.xlsx
+++ b/design/Book1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83450A5A-CDBB-4E36-86FE-1B9FD31FB1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{83450A5A-CDBB-4E36-86FE-1B9FD31FB1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63ADDB15-0C09-4345-838A-C3FD7803357C}"/>
   <bookViews>
-    <workbookView xWindow="13605" yWindow="0" windowWidth="15300" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modbus TCP frames" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t>Byte 0</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>* or Byte 3</t>
+  </si>
+  <si>
+    <t>the status written</t>
+  </si>
+  <si>
+    <t>the value written</t>
+  </si>
+  <si>
+    <t>qty of coils to written</t>
+  </si>
+  <si>
+    <t>qty of regs to written</t>
   </si>
 </sst>
 </file>
@@ -324,55 +336,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,29 +388,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +430,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,7 +752,7 @@
   <dimension ref="A2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -769,647 +772,647 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="38"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="39"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21">
+      <c r="A6" s="25"/>
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="21">
+      <c r="A7" s="25"/>
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="21">
+      <c r="A8" s="25"/>
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22">
+      <c r="A10" s="23"/>
+      <c r="B10" s="13">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22">
+      <c r="A11" s="23"/>
+      <c r="B11" s="13">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="23">
+      <c r="A12" s="24"/>
+      <c r="B12" s="14">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="20" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="37" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="5" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33" t="s">
+      <c r="M19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="12">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="29" t="s">
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="33" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="21">
+      <c r="A21" s="25"/>
+      <c r="B21" s="12">
         <v>2</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="21">
+      <c r="A22" s="25"/>
+      <c r="B22" s="12">
         <v>3</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21">
+      <c r="A23" s="25"/>
+      <c r="B23" s="12">
         <v>4</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="13">
         <v>5</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="22">
+      <c r="A25" s="23"/>
+      <c r="B25" s="13">
         <v>6</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="22">
+      <c r="A26" s="23"/>
+      <c r="B26" s="13">
         <v>15</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="23">
+      <c r="A27" s="24"/>
+      <c r="B27" s="14">
         <v>16</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
+  <mergeCells count="50">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="A2:L2"/>
@@ -1426,22 +1429,24 @@
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:L27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1462,21 +1467,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Blank Document","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43BD7F1F-596C-48D7-B49B-C059BD9AD9F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06124858-FF52-43B6-9F5F-14F707108C35}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06124858-FF52-43B6-9F5F-14F707108C35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43BD7F1F-596C-48D7-B49B-C059BD9AD9F3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>